--- a/assets/templates/students.xlsx
+++ b/assets/templates/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseagd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E39F616-A72B-49CF-B658-B7316C490D93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BE91D18-5BD2-44A1-94F7-70F726538B52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A67962EB-5845-48AD-8164-65EE1C908851}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Student 1</t>
   </si>
   <si>
     <t>student-1-email@email.com</t>
+  </si>
+  <si>
+    <t>identifier</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,15 +404,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
